--- a/MainTop/26.06.2025 Таня ВБ/WB_поставка_26.06.2025 Таня ВБ.xlsx
+++ b/MainTop/26.06.2025 Таня ВБ/WB_поставка_26.06.2025 Таня ВБ.xlsx
@@ -35,32 +35,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BD445"/>
+        <fgColor rgb="009BD445"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFACD"/>
+        <fgColor rgb="00FFFACD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
+        <fgColor rgb="0099FF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
+        <fgColor rgb="0066FFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66B2FF"/>
+        <fgColor rgb="0066B2FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1242,51 +1242,51 @@
     <row r="79">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>OZN1912202033</t>
+          <t>OZN1522019477</t>
         </is>
       </c>
       <c r="B79" s="5" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>OZN1506319334</t>
+          <t>OZN1849778040</t>
         </is>
       </c>
       <c r="B80" s="5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>OZN1522019477</t>
+          <t>OZN1738651525</t>
         </is>
       </c>
       <c r="B81" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>OZN1849778040</t>
+          <t>OZN1912202033</t>
         </is>
       </c>
       <c r="B82" s="5" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
-          <t>OZN1738651525</t>
+          <t>OZN1506319334</t>
         </is>
       </c>
       <c r="B83" s="5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
